--- a/DesignTable/Data/Table/Tables/skill.xlsx
+++ b/DesignTable/Data/Table/Tables/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oh\Desktop\DesignGenerator\Data\Data_Export\Table\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectT\DesignTable\Data\Table\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5432904-ABA9-4781-A37A-5993AE6928B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EDDD5-FC65-4491-A36D-11394B393093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{4F9BF89E-1109-4430-8FEA-0CD31C83E41E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F9BF89E-1109-4430-8FEA-0CD31C83E41E}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="2" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>1004</t>
   </si>
   <si>
-    <t>{"UseListRule":true,"FindPKId" : ["unit_Class","unit_type"],"PKIds":["unit_Class","unit_type","skill_Id"]}</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>Assets/Res/Sound/Monster/BossElementAttack.wav</t>
+  </si>
+  <si>
+    <t>{"UseListRule":true,"FindPKId" : ["skill_Id"],"PKIds":["skill_Id"]}</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="4" Name="skill_맵" RootElement="skill" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="6" Name="skill_맵" RootElement="skill" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
@@ -598,70 +598,70 @@
   <autoFilter ref="A1:V12" xr:uid="{853F8BF2-7437-4F67-8640-39E9BF7149BB}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{6EF0E387-D5D4-4ED0-9F12-131C43753272}" uniqueName="unit_Class" name="unit_Class" dataDxfId="21">
-      <xmlColumnPr mapId="4" xpath="/skill/record/unit_Class" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/unit_Class" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C4A7838A-996F-410C-A0DF-57FF01FF7A27}" uniqueName="unit_type" name="unit_type" dataDxfId="20">
-      <xmlColumnPr mapId="4" xpath="/skill/record/unit_type" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/unit_type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12B86D4F-2F2D-4D15-8954-A779A32D5A56}" uniqueName="skill_Id" name="skill_Id" dataDxfId="19">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_Id" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_Id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{91639917-119A-45ED-8EF7-8A77117DF485}" uniqueName="skill_coolTime" name="skill_coolTime" dataDxfId="18">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_coolTime" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_coolTime" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{9BDC73BD-33DC-4401-9D98-23B85612A5F9}" uniqueName="skill_range" name="skill_range" dataDxfId="17">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_range" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_range" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{576A8457-93C8-402F-82FF-A949BC6890DD}" uniqueName="skill_radius" name="skill_radius" dataDxfId="16">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_radius" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_radius" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BCBD11D5-7D29-4195-BB3C-D9039D5FB354}" uniqueName="skill_scale" name="skill_scale" dataDxfId="15">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_scale" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_scale" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D40AC9FA-E3D5-4DAE-B74F-51530FE3E24E}" uniqueName="skill_buffId" name="skill_buffId" dataDxfId="14">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_buffId" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_buffId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9B044E9B-92E5-4E1F-BD99-7B57319FC4B3}" uniqueName="skill_type" name="skill_type" dataDxfId="13">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_type" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4B82CBE2-8E95-44C6-B75B-3FB8D2B6E126}" uniqueName="skill_attackType" name="skill_attackType" dataDxfId="12">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_attackType" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_attackType" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{22B6DA33-88B3-4278-AA0E-AB7D46B3157B}" uniqueName="skill_contoroll" name="skill_contoroll" dataDxfId="11">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_contoroll" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_contoroll" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{D5C08D3C-1406-4E3B-BFA4-D982E2C29F11}" uniqueName="skill_dash" name="skill_dash" dataDxfId="10">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_dash" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_dash" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{42DDF0FD-A456-4700-B1B3-62ABAACCEB32}" uniqueName="skill_dashSpeed" name="skill_dashSpeed" dataDxfId="9">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_dashSpeed" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_dashSpeed" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{F8B7FCB5-4F67-49CD-BB31-80A6D1780DE6}" uniqueName="skill_judgeAni" name="skill_judgeAni" dataDxfId="8">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_judgeAni" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_judgeAni" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{17845948-957A-485B-AF81-16EBA39C286B}" uniqueName="skill_judgeTime" name="skill_judgeTime" dataDxfId="7">
-      <xmlColumnPr mapId="4" xpath="/skill/record/skill_judgeTime" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/skill_judgeTime" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{202175A2-302A-47F6-8B21-06758F93C900}" uniqueName="effect_Id" name="effect_Id" dataDxfId="6">
-      <xmlColumnPr mapId="4" xpath="/skill/record/effect_Id" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/effect_Id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{3F7C7D31-C2C2-489B-A70E-F74C7D7E3A4A}" uniqueName="hit_effect_Id" name="hit_effect_Id" dataDxfId="5">
-      <xmlColumnPr mapId="4" xpath="/skill/record/hit_effect_Id" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/hit_effect_Id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{63E47B25-C350-4C31-BF23-D74AC0718CBA}" uniqueName="image_Res" name="image_Res" dataDxfId="4">
-      <xmlColumnPr mapId="4" xpath="/skill/record/image_Res" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/image_Res" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{11615B1C-9C68-4BFF-AB93-023986BF309F}" uniqueName="sound_Res" name="sound_Res" dataDxfId="3">
-      <xmlColumnPr mapId="4" xpath="/skill/record/sound_Res" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/sound_Res" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{F86294E3-CF7F-47CC-BB97-C95A5AAED4B1}" uniqueName="hitSound_Res" name="hitSound_Res" dataDxfId="2">
-      <xmlColumnPr mapId="4" xpath="/skill/record/hitSound_Res" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/hitSound_Res" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{E94EC8F5-940E-479C-8536-E0714E69EFB2}" uniqueName="sound_Ani" name="sound_Ani" dataDxfId="1">
-      <xmlColumnPr mapId="4" xpath="/skill/record/sound_Ani" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/sound_Ani" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{5D7F94F3-7902-4084-B826-DB209ABF4890}" uniqueName="projectile_Id" name="projectile_Id" dataDxfId="0">
-      <xmlColumnPr mapId="4" xpath="/skill/record/projectile_Id" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/record/projectile_Id" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -673,31 +673,31 @@
   <autoFilter ref="A1:I23" xr:uid="{43A406C0-9967-4ECC-97AB-BA71B93D701D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{27F4F2F2-5BD9-468B-B369-DC2319E79605}" uniqueName="ColumnName" name="ColumnName">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@ColumnName" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@ColumnName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{89C669FB-CA23-4153-9ED0-299DA35F16EA}" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@Type" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@Type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{143AC4C8-50BA-4098-B235-CC5C976AF838}" uniqueName="IsClient" name="IsClient">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@IsClient" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@IsClient" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{19A6A1F8-4A5A-42F4-933F-F637A98BC264}" uniqueName="IsServer" name="IsServer">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@IsServer" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@IsServer" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{7AB88B14-0928-41DC-B690-F5A83069A6A6}" uniqueName="PK" name="PK">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@PK" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@PK" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{92E43982-C5CC-49AA-BEFF-7D40DF831CEC}" uniqueName="EnumID" name="EnumID">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@EnumID" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@EnumID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{0AF1C5F9-1BB8-4634-863B-5BDC1918EF8E}" uniqueName="IDRule" name="IDRule">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@IDRule" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@IDRule" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{1C555B1F-285D-44A8-9429-C14BDF4D1497}" uniqueName="StringHashIds" name="StringHashIds">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@StringHashIds" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@StringHashIds" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{59A7A7C1-C151-4DE1-8C32-98B4EF3FF25A}" uniqueName="TableId" name="TableID">
-      <xmlColumnPr mapId="4" xpath="/skill/verify/@TableId" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/skill/verify/@TableId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1011,138 +1011,138 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W2" s="1"/>
     </row>
@@ -1151,67 +1151,67 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W3" s="1"/>
     </row>
@@ -1220,67 +1220,67 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -1289,345 +1289,345 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1637,205 +1637,205 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="V10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="L12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="S12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1852,12 +1852,13 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1903,16 +1904,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>1013</v>
@@ -1920,7 +1921,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1932,16 +1933,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>1013</v>
@@ -1949,7 +1950,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1964,13 +1965,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>1013</v>
@@ -1978,28 +1979,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>1013</v>
@@ -2007,28 +2008,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>1013</v>
@@ -2036,28 +2037,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>1013</v>
@@ -2065,28 +2066,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1">
         <v>1013</v>
@@ -2094,7 +2095,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -2106,16 +2107,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1">
         <v>1013</v>
@@ -2123,28 +2124,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1">
         <v>1013</v>
@@ -2152,28 +2153,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1">
         <v>1013</v>
@@ -2181,11 +2182,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2193,16 +2194,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1">
         <v>1013</v>
@@ -2210,10 +2211,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -2222,16 +2223,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1">
         <v>1013</v>
@@ -2239,28 +2240,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
         <v>1013</v>
@@ -2268,10 +2269,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -2280,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <v>1013</v>
@@ -2297,28 +2298,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1">
         <v>1013</v>
@@ -2326,7 +2327,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -2338,16 +2339,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1">
         <v>1013</v>
@@ -2355,7 +2356,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2367,16 +2368,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1">
         <v>1013</v>
@@ -2384,11 +2385,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2396,16 +2397,16 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1">
         <v>1013</v>
@@ -2413,10 +2414,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -2425,16 +2426,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1">
         <v>1013</v>
@@ -2442,10 +2443,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -2454,16 +2455,16 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1">
         <v>1013</v>
@@ -2471,10 +2472,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -2483,16 +2484,16 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1">
         <v>1013</v>
@@ -2500,7 +2501,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -2512,16 +2513,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1">
         <v>1013</v>
